--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N2">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O2">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P2">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q2">
-        <v>2223.956981120573</v>
+        <v>296.5008358955889</v>
       </c>
       <c r="R2">
-        <v>20015.61283008516</v>
+        <v>2668.5075230603</v>
       </c>
       <c r="S2">
-        <v>0.2527940559544052</v>
+        <v>0.1212088752342817</v>
       </c>
       <c r="T2">
-        <v>0.2527940559544053</v>
+        <v>0.1212088752342817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,25 +620,25 @@
         <v>2.346919</v>
       </c>
       <c r="N3">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O3">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P3">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q3">
-        <v>381.137995715943</v>
+        <v>472.7627594195106</v>
       </c>
       <c r="R3">
-        <v>3430.241961443487</v>
+        <v>4254.864834775596</v>
       </c>
       <c r="S3">
-        <v>0.04332341885804774</v>
+        <v>0.1932643533661846</v>
       </c>
       <c r="T3">
-        <v>0.04332341885804775</v>
+        <v>0.1932643533661847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N4">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O4">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P4">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q4">
-        <v>216.057378056275</v>
+        <v>179.8341887737916</v>
       </c>
       <c r="R4">
-        <v>1944.516402506475</v>
+        <v>1618.507698964124</v>
       </c>
       <c r="S4">
-        <v>0.02455893768691514</v>
+        <v>0.07351581213624853</v>
       </c>
       <c r="T4">
-        <v>0.02455893768691514</v>
+        <v>0.07351581213624853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N5">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O5">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P5">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q5">
-        <v>618.999103387438</v>
+        <v>233.2717879755005</v>
       </c>
       <c r="R5">
-        <v>5570.991930486942</v>
+        <v>2099.446091779504</v>
       </c>
       <c r="S5">
-        <v>0.07036075576363275</v>
+        <v>0.09536098257192437</v>
       </c>
       <c r="T5">
-        <v>0.07036075576363278</v>
+        <v>0.09536098257192437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N6">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O6">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P6">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q6">
-        <v>895.8499668686599</v>
+        <v>96.28836419757224</v>
       </c>
       <c r="R6">
-        <v>8062.649701817939</v>
+        <v>866.59527777815</v>
       </c>
       <c r="S6">
-        <v>0.1018300032661783</v>
+        <v>0.03936246684527557</v>
       </c>
       <c r="T6">
-        <v>0.1018300032661784</v>
+        <v>0.03936246684527558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,13 +868,13 @@
         <v>2.346919</v>
       </c>
       <c r="N7">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O7">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P7">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q7">
         <v>153.5292560661287</v>
@@ -883,10 +883,10 @@
         <v>1381.763304595158</v>
       </c>
       <c r="S7">
-        <v>0.01745145417743805</v>
+        <v>0.06276241477404998</v>
       </c>
       <c r="T7">
-        <v>0.01745145417743806</v>
+        <v>0.06276241477404999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N8">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O8">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P8">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q8">
-        <v>87.0318070972389</v>
+        <v>58.40098160776689</v>
       </c>
       <c r="R8">
-        <v>783.28626387515</v>
+        <v>525.6088344699019</v>
       </c>
       <c r="S8">
-        <v>0.00989278286402232</v>
+        <v>0.02387419000649337</v>
       </c>
       <c r="T8">
-        <v>0.00989278286402232</v>
+        <v>0.02387419000649337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N9">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O9">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P9">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q9">
-        <v>249.3439985435143</v>
+        <v>75.75479107759911</v>
       </c>
       <c r="R9">
-        <v>2244.095986891628</v>
+        <v>681.7931196983919</v>
       </c>
       <c r="S9">
-        <v>0.02834258092885607</v>
+        <v>0.03096838830956022</v>
       </c>
       <c r="T9">
-        <v>0.02834258092885608</v>
+        <v>0.03096838830956022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N10">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O10">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P10">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q10">
-        <v>837.8272030100496</v>
+        <v>88.95454658221112</v>
       </c>
       <c r="R10">
-        <v>7540.444827090448</v>
+        <v>800.5909192399001</v>
       </c>
       <c r="S10">
-        <v>0.09523463746638118</v>
+        <v>0.03636441868920119</v>
       </c>
       <c r="T10">
-        <v>0.09523463746638124</v>
+        <v>0.0363644186892012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,25 +1116,25 @@
         <v>2.346919</v>
       </c>
       <c r="N11">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O11">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P11">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q11">
-        <v>143.585412677653</v>
+        <v>141.8356773871853</v>
       </c>
       <c r="R11">
-        <v>1292.268714098877</v>
+        <v>1276.521096484668</v>
       </c>
       <c r="S11">
-        <v>0.01632115151273382</v>
+        <v>0.05798210609513139</v>
       </c>
       <c r="T11">
-        <v>0.01632115151273382</v>
+        <v>0.05798210609513141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N12">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O12">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P12">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q12">
-        <v>81.39489670135833</v>
+        <v>53.95286213623245</v>
       </c>
       <c r="R12">
-        <v>732.554070312225</v>
+        <v>485.575759226092</v>
       </c>
       <c r="S12">
-        <v>0.009252043203083281</v>
+        <v>0.02205580876509189</v>
       </c>
       <c r="T12">
-        <v>0.009252043203083283</v>
+        <v>0.02205580876509189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N13">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O13">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P13">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q13">
-        <v>233.1943881376313</v>
+        <v>69.98491612040355</v>
       </c>
       <c r="R13">
-        <v>2098.749493238682</v>
+        <v>629.864245083632</v>
       </c>
       <c r="S13">
-        <v>0.02650687747269948</v>
+        <v>0.02860967639668589</v>
       </c>
       <c r="T13">
-        <v>0.02650687747269949</v>
+        <v>0.02860967639668589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>13.69437566666667</v>
+        <v>1.471908333333333</v>
       </c>
       <c r="N14">
-        <v>41.083127</v>
+        <v>4.415725</v>
       </c>
       <c r="O14">
-        <v>0.6464706592402051</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="P14">
-        <v>0.6464706592402053</v>
+        <v>0.2507683239665115</v>
       </c>
       <c r="Q14">
-        <v>1729.694731315046</v>
+        <v>131.6850763253472</v>
       </c>
       <c r="R14">
-        <v>15567.25258183541</v>
+        <v>1185.165686928125</v>
       </c>
       <c r="S14">
-        <v>0.1966119625532403</v>
+        <v>0.05383256319775299</v>
       </c>
       <c r="T14">
-        <v>0.1966119625532405</v>
+        <v>0.053832563197753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,25 +1364,25 @@
         <v>2.346919</v>
       </c>
       <c r="N15">
-        <v>7.040757</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O15">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="P15">
-        <v>0.1107910510156661</v>
+        <v>0.3998434758381655</v>
       </c>
       <c r="Q15">
-        <v>296.4321651409234</v>
+        <v>209.9683795827917</v>
       </c>
       <c r="R15">
-        <v>2667.88948626831</v>
+        <v>1889.715416245125</v>
       </c>
       <c r="S15">
-        <v>0.03369502646744647</v>
+        <v>0.08583460160279949</v>
       </c>
       <c r="T15">
-        <v>0.03369502646744649</v>
+        <v>0.0858346016027995</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.330408333333333</v>
+        <v>0.8927443333333333</v>
       </c>
       <c r="N16">
-        <v>3.991225</v>
+        <v>2.678233</v>
       </c>
       <c r="O16">
-        <v>0.06280461214468869</v>
+        <v>0.152096428242656</v>
       </c>
       <c r="P16">
-        <v>0.06280461214468869</v>
+        <v>0.1520964282426559</v>
       </c>
       <c r="Q16">
-        <v>168.0398099685278</v>
+        <v>79.86985535151389</v>
       </c>
       <c r="R16">
-        <v>1512.35828971675</v>
+        <v>718.8286981636249</v>
       </c>
       <c r="S16">
-        <v>0.01910084839066795</v>
+        <v>0.03265061733482216</v>
       </c>
       <c r="T16">
-        <v>0.01910084839066795</v>
+        <v>0.03265061733482216</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.811587333333334</v>
+        <v>1.158022666666667</v>
       </c>
       <c r="N17">
-        <v>11.434762</v>
+        <v>3.474068</v>
       </c>
       <c r="O17">
-        <v>0.1799336775994399</v>
+        <v>0.1972917719526671</v>
       </c>
       <c r="P17">
-        <v>0.17993367759944</v>
+        <v>0.197291771952667</v>
       </c>
       <c r="Q17">
-        <v>481.4299453213845</v>
+        <v>103.6031251356111</v>
       </c>
       <c r="R17">
-        <v>4332.86950789246</v>
+        <v>932.4281262205001</v>
       </c>
       <c r="S17">
-        <v>0.05472346343425163</v>
+        <v>0.04235272467449657</v>
       </c>
       <c r="T17">
-        <v>0.05472346343425166</v>
+        <v>0.04235272467449657</v>
       </c>
     </row>
   </sheetData>
